--- a/app/resources/formato.xlsx
+++ b/app/resources/formato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilomm\Documents\POC\FlaskExcelToPDF\app\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB51A7E-2C66-4BB9-B12D-5CBCCDF7FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04924470-6470-4F1B-BEB2-4897D8841CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -860,8 +860,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -916,8 +923,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="139">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -2529,6 +2542,17 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF006600"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF395979"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2541,7 +2565,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2621,15 +2645,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2707,38 +2728,271 @@
     <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="110" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="109" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="117" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="118" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="117" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="110" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="118" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="124" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="118" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="5" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="117" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="117" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2746,263 +3000,57 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="109" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="3" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="118" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="118" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="5" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="117" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="110" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="110" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="118" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="124" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="117" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3080,6 +3128,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF0066CC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3096,50 +3147,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>94502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:colOff>161741</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>8843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9053" name="Imagen 1">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D230000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BB64FE-3CD2-8BD6-B76F-4DBF35A689EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="266700"/>
-          <a:ext cx="1314450" cy="463550"/>
+          <a:off x="6726704" y="251384"/>
+          <a:ext cx="1346390" cy="485841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3474,8 +3519,8 @@
   </sheetPr>
   <dimension ref="B1:AR75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3530,185 +3575,192 @@
       <c r="K1" s="14"/>
     </row>
     <row r="2" spans="2:39" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="45"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="218"/>
+      <c r="AH3" s="239">
+        <v>220</v>
+      </c>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="241"/>
     </row>
     <row r="4" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="102"/>
-      <c r="AM4" s="47"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="220"/>
+      <c r="AH4" s="242"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="243"/>
+      <c r="AM4" s="244"/>
     </row>
     <row r="5" spans="2:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="51"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="222"/>
+      <c r="S5" s="222"/>
+      <c r="T5" s="222"/>
+      <c r="U5" s="222"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="222"/>
+      <c r="X5" s="222"/>
+      <c r="Y5" s="222"/>
+      <c r="Z5" s="222"/>
+      <c r="AA5" s="222"/>
+      <c r="AB5" s="222"/>
+      <c r="AC5" s="222"/>
+      <c r="AD5" s="222"/>
+      <c r="AE5" s="222"/>
+      <c r="AF5" s="222"/>
+      <c r="AG5" s="223"/>
+      <c r="AH5" s="245"/>
+      <c r="AI5" s="246"/>
+      <c r="AJ5" s="246"/>
+      <c r="AK5" s="246"/>
+      <c r="AL5" s="246"/>
+      <c r="AM5" s="247"/>
     </row>
     <row r="6" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="52" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="55"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="52"/>
     </row>
     <row r="7" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="199"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="139"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="165"/>
       <c r="W7" s="6"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="4"/>
@@ -3725,10 +3777,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="56"/>
+      <c r="AM7" s="53"/>
     </row>
     <row r="8" spans="2:39" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="182" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3781,10 +3833,10 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
-      <c r="AM8" s="57"/>
+      <c r="AM8" s="54"/>
     </row>
     <row r="9" spans="2:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="158"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3821,10 +3873,10 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
-      <c r="AM9" s="57"/>
+      <c r="AM9" s="54"/>
     </row>
     <row r="10" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="158"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="10"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3862,31 +3914,31 @@
       <c r="Q10" s="22">
         <v>0</v>
       </c>
-      <c r="R10" s="188"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="176"/>
-      <c r="Z10" s="176"/>
-      <c r="AA10" s="176"/>
-      <c r="AB10" s="176"/>
-      <c r="AC10" s="177"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="176"/>
-      <c r="AF10" s="176"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="177"/>
-      <c r="AI10" s="203"/>
-      <c r="AJ10" s="176"/>
-      <c r="AK10" s="176"/>
-      <c r="AL10" s="176"/>
-      <c r="AM10" s="204"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="198"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="198"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="169"/>
+      <c r="AJ10" s="150"/>
+      <c r="AK10" s="150"/>
+      <c r="AL10" s="150"/>
+      <c r="AM10" s="170"/>
     </row>
     <row r="11" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="158"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="31" t="s">
         <v>11</v>
       </c>
@@ -3925,1379 +3977,1379 @@
       <c r="AJ11" s="34"/>
       <c r="AK11" s="34"/>
       <c r="AL11" s="34"/>
-      <c r="AM11" s="58"/>
+      <c r="AM11" s="55"/>
     </row>
     <row r="12" spans="2:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="158"/>
-      <c r="C12" s="162">
+      <c r="B12" s="183"/>
+      <c r="C12" s="186">
         <v>0</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="101"/>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="101"/>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="163"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="187"/>
     </row>
     <row r="13" spans="2:39" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="119" t="s">
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="62" t="s">
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="61"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="58"/>
     </row>
     <row r="14" spans="2:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="220"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="191">
+      <c r="B14" s="174"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="154">
         <v>13</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="210"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="211"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="195"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="195"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="171"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="90"/>
     </row>
     <row r="15" spans="2:39" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="220"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="115" t="s">
+      <c r="D15" s="154"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="194" t="s">
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="180"/>
+      <c r="Y15" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="193" t="s">
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="241" t="s">
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="101"/>
-      <c r="AM15" s="211"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="90"/>
     </row>
     <row r="16" spans="2:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="140" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="76" t="s">
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="183" t="s">
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="AJ16" s="130"/>
-      <c r="AK16" s="206" t="s">
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AL16" s="130"/>
-      <c r="AM16" s="131"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="114"/>
     </row>
     <row r="17" spans="2:39" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="181">
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="179">
         <v>2022</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="68">
+      <c r="G17" s="180"/>
+      <c r="H17" s="65">
         <v>1</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="65">
         <v>1</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="65" t="s">
+      <c r="J17" s="64"/>
+      <c r="K17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="153">
+      <c r="L17" s="64"/>
+      <c r="M17" s="214">
         <v>2022</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="67">
+      <c r="N17" s="159"/>
+      <c r="O17" s="64">
         <v>12</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="64">
         <v>31</v>
       </c>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="181">
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="179">
         <v>2023</v>
       </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="68">
+      <c r="T17" s="180"/>
+      <c r="U17" s="65">
         <v>1</v>
       </c>
-      <c r="V17" s="68">
+      <c r="V17" s="65">
         <v>20</v>
       </c>
-      <c r="W17" s="67"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="195" t="s">
+      <c r="W17" s="64"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="116"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="196"/>
-      <c r="AI17" s="71">
+      <c r="Z17" s="159"/>
+      <c r="AA17" s="159"/>
+      <c r="AB17" s="159"/>
+      <c r="AC17" s="159"/>
+      <c r="AD17" s="159"/>
+      <c r="AE17" s="159"/>
+      <c r="AF17" s="159"/>
+      <c r="AG17" s="159"/>
+      <c r="AH17" s="160"/>
+      <c r="AI17" s="68">
         <v>1</v>
       </c>
-      <c r="AJ17" s="72">
+      <c r="AJ17" s="69">
         <v>1</v>
       </c>
-      <c r="AK17" s="73">
+      <c r="AK17" s="70">
         <v>0</v>
       </c>
-      <c r="AL17" s="74">
+      <c r="AL17" s="71">
         <v>0</v>
       </c>
-      <c r="AM17" s="75">
+      <c r="AM17" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="79" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="215"/>
+      <c r="AB18" s="216"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="168"/>
-      <c r="AH18" s="169"/>
-      <c r="AI18" s="169"/>
-      <c r="AJ18" s="169"/>
-      <c r="AK18" s="169"/>
-      <c r="AL18" s="169"/>
-      <c r="AM18" s="170"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="192"/>
+      <c r="AH18" s="193"/>
+      <c r="AI18" s="193"/>
+      <c r="AJ18" s="193"/>
+      <c r="AK18" s="193"/>
+      <c r="AL18" s="193"/>
+      <c r="AM18" s="194"/>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="146" t="s">
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="147"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="147"/>
-      <c r="AH19" s="147"/>
-      <c r="AI19" s="147"/>
-      <c r="AJ19" s="147"/>
-      <c r="AK19" s="147"/>
-      <c r="AL19" s="147"/>
-      <c r="AM19" s="148"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="211"/>
     </row>
     <row r="20" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="215" t="s">
+      <c r="B20" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="96"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="93"/>
       <c r="AC20" s="26">
         <v>36</v>
       </c>
-      <c r="AD20" s="127">
+      <c r="AD20" s="107">
         <v>0</v>
       </c>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="122"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="108"/>
     </row>
     <row r="21" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="96"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="93"/>
       <c r="AC21" s="26">
         <v>37</v>
       </c>
-      <c r="AD21" s="127">
+      <c r="AD21" s="107">
         <v>0</v>
       </c>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="122"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="108"/>
     </row>
     <row r="22" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="96"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="93"/>
       <c r="AC22" s="27">
         <v>38</v>
       </c>
-      <c r="AD22" s="121">
+      <c r="AD22" s="129">
         <v>0</v>
       </c>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="122"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="108"/>
     </row>
     <row r="23" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="96"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="93"/>
       <c r="AC23" s="26">
         <f t="shared" ref="AC23:AC28" si="0">+AC22+1</f>
         <v>39</v>
       </c>
-      <c r="AD23" s="127">
+      <c r="AD23" s="107">
         <v>0</v>
       </c>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="122"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="108"/>
     </row>
     <row r="24" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="96"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="93"/>
       <c r="AC24" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AD24" s="121">
+      <c r="AD24" s="129">
         <v>0</v>
       </c>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="95"/>
-      <c r="AM24" s="122"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="108"/>
     </row>
     <row r="25" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="96"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="93"/>
       <c r="AC25" s="26">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AD25" s="127">
+      <c r="AD25" s="107">
         <v>0</v>
       </c>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="95"/>
-      <c r="AL25" s="95"/>
-      <c r="AM25" s="122"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="108"/>
     </row>
     <row r="26" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="96"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="93"/>
       <c r="AC26" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AD26" s="121">
+      <c r="AD26" s="129">
         <v>0</v>
       </c>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="95"/>
-      <c r="AM26" s="122"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="108"/>
     </row>
     <row r="27" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="96"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="93"/>
       <c r="AC27" s="26">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AD27" s="127">
+      <c r="AD27" s="107">
         <v>0</v>
       </c>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="122"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="108"/>
     </row>
     <row r="28" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="96"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="93"/>
       <c r="AC28" s="27">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AD28" s="121">
+      <c r="AD28" s="129">
         <v>0</v>
       </c>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="122"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="108"/>
     </row>
     <row r="29" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="96"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="93"/>
       <c r="AC29" s="26">
         <v>45</v>
       </c>
-      <c r="AD29" s="127">
+      <c r="AD29" s="107">
         <v>0</v>
       </c>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="122"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="92"/>
+      <c r="AM29" s="108"/>
     </row>
     <row r="30" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="96"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="93"/>
       <c r="AC30" s="27">
         <f>+AC29+1</f>
         <v>46</v>
       </c>
-      <c r="AD30" s="121">
+      <c r="AD30" s="129">
         <v>0</v>
       </c>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="122"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="92"/>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="108"/>
     </row>
     <row r="31" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="96"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="93"/>
       <c r="AC31" s="26">
         <f>+AC30+1</f>
         <v>47</v>
       </c>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="122"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="108"/>
     </row>
     <row r="32" spans="2:39" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="96"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="93"/>
       <c r="AC32" s="27">
         <f>+AC31+1</f>
         <v>48</v>
       </c>
-      <c r="AD32" s="121">
+      <c r="AD32" s="129">
         <v>0</v>
       </c>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="122"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="108"/>
     </row>
     <row r="33" spans="2:44" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="138"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="90">
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="165"/>
+      <c r="AC33" s="87">
         <f>+AC32+1</f>
         <v>49</v>
       </c>
-      <c r="AD33" s="233">
+      <c r="AD33" s="99">
         <f>SUM(AD20:AM32)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="138"/>
-      <c r="AG33" s="138"/>
-      <c r="AH33" s="138"/>
-      <c r="AI33" s="138"/>
-      <c r="AJ33" s="138"/>
-      <c r="AK33" s="138"/>
-      <c r="AL33" s="138"/>
-      <c r="AM33" s="234"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="100"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="100"/>
+      <c r="AM33" s="101"/>
     </row>
     <row r="34" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B34" s="208" t="s">
+      <c r="B34" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="209"/>
-      <c r="O34" s="209"/>
-      <c r="P34" s="209"/>
-      <c r="Q34" s="209"/>
-      <c r="R34" s="209"/>
-      <c r="S34" s="209"/>
-      <c r="T34" s="209"/>
-      <c r="U34" s="209"/>
-      <c r="V34" s="209"/>
-      <c r="W34" s="209"/>
-      <c r="X34" s="209"/>
-      <c r="Y34" s="209"/>
-      <c r="Z34" s="209"/>
-      <c r="AA34" s="209"/>
-      <c r="AB34" s="209"/>
-      <c r="AC34" s="237" t="s">
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="139"/>
+      <c r="S34" s="139"/>
+      <c r="T34" s="139"/>
+      <c r="U34" s="139"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="139"/>
+      <c r="AB34" s="139"/>
+      <c r="AC34" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="143"/>
-      <c r="AF34" s="143"/>
-      <c r="AG34" s="143"/>
-      <c r="AH34" s="143"/>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="143"/>
-      <c r="AK34" s="143"/>
-      <c r="AL34" s="143"/>
-      <c r="AM34" s="185"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="96"/>
     </row>
     <row r="35" spans="2:44" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="125"/>
-      <c r="U35" s="125"/>
-      <c r="V35" s="125"/>
-      <c r="W35" s="125"/>
-      <c r="X35" s="125"/>
-      <c r="Y35" s="125"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="125"/>
-      <c r="AB35" s="152"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="124"/>
       <c r="AC35" s="26">
         <f>+AC33+1</f>
         <v>50</v>
       </c>
-      <c r="AD35" s="127">
+      <c r="AD35" s="107">
         <v>0</v>
       </c>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="122"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="92"/>
+      <c r="AL35" s="92"/>
+      <c r="AM35" s="108"/>
     </row>
     <row r="36" spans="2:44" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="96"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="93"/>
       <c r="AC36" s="30">
         <f>+AC35+1</f>
         <v>51</v>
       </c>
-      <c r="AD36" s="240"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="133"/>
+      <c r="AD36" s="131"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="92"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="118"/>
     </row>
     <row r="37" spans="2:44" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="96"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="93"/>
       <c r="AC37" s="27">
         <f>+AC36+1</f>
         <v>52</v>
       </c>
-      <c r="AD37" s="127">
+      <c r="AD37" s="107">
         <v>0</v>
       </c>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="122"/>
+      <c r="AE37" s="92"/>
+      <c r="AF37" s="92"/>
+      <c r="AG37" s="92"/>
+      <c r="AH37" s="92"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="92"/>
+      <c r="AL37" s="92"/>
+      <c r="AM37" s="108"/>
     </row>
     <row r="38" spans="2:44" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="96"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="92"/>
+      <c r="Z38" s="92"/>
+      <c r="AA38" s="92"/>
+      <c r="AB38" s="93"/>
       <c r="AC38" s="27">
         <f>+AC37+1</f>
         <v>53</v>
       </c>
-      <c r="AD38" s="132">
+      <c r="AD38" s="233">
         <v>0</v>
       </c>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="133"/>
+      <c r="AE38" s="92"/>
+      <c r="AF38" s="92"/>
+      <c r="AG38" s="92"/>
+      <c r="AH38" s="92"/>
+      <c r="AI38" s="92"/>
+      <c r="AJ38" s="92"/>
+      <c r="AK38" s="92"/>
+      <c r="AL38" s="92"/>
+      <c r="AM38" s="118"/>
     </row>
     <row r="39" spans="2:44" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="96"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="92"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="92"/>
+      <c r="AA39" s="92"/>
+      <c r="AB39" s="93"/>
       <c r="AC39" s="35">
         <f>+AC38+1</f>
         <v>54</v>
       </c>
-      <c r="AD39" s="179">
+      <c r="AD39" s="199">
         <v>0</v>
       </c>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="133"/>
+      <c r="AE39" s="92"/>
+      <c r="AF39" s="92"/>
+      <c r="AG39" s="92"/>
+      <c r="AH39" s="92"/>
+      <c r="AI39" s="92"/>
+      <c r="AJ39" s="92"/>
+      <c r="AK39" s="92"/>
+      <c r="AL39" s="92"/>
+      <c r="AM39" s="118"/>
     </row>
     <row r="40" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="182" t="s">
+      <c r="B40" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
-      <c r="O40" s="176"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="176"/>
-      <c r="T40" s="176"/>
-      <c r="U40" s="176"/>
-      <c r="V40" s="176"/>
-      <c r="W40" s="176"/>
-      <c r="X40" s="176"/>
-      <c r="Y40" s="176"/>
-      <c r="Z40" s="176"/>
-      <c r="AA40" s="176"/>
-      <c r="AB40" s="177"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="151"/>
       <c r="AC40" s="28">
         <f>+AC39+1</f>
         <v>55</v>
       </c>
-      <c r="AD40" s="189">
+      <c r="AD40" s="152">
         <v>0</v>
       </c>
-      <c r="AE40" s="143"/>
-      <c r="AF40" s="143"/>
-      <c r="AG40" s="143"/>
-      <c r="AH40" s="143"/>
-      <c r="AI40" s="143"/>
-      <c r="AJ40" s="143"/>
-      <c r="AK40" s="143"/>
-      <c r="AL40" s="143"/>
-      <c r="AM40" s="190"/>
+      <c r="AE40" s="95"/>
+      <c r="AF40" s="95"/>
+      <c r="AG40" s="95"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="95"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="95"/>
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="153"/>
     </row>
     <row r="41" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="80" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="12"/>
@@ -5336,573 +5388,573 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="AM41" s="84"/>
+      <c r="AM41" s="81"/>
     </row>
     <row r="42" spans="2:44" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="224"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="101"/>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="101"/>
-      <c r="AH42" s="101"/>
-      <c r="AI42" s="101"/>
-      <c r="AJ42" s="101"/>
-      <c r="AK42" s="101"/>
-      <c r="AL42" s="101"/>
-      <c r="AM42" s="133"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="89"/>
+      <c r="AC42" s="89"/>
+      <c r="AD42" s="89"/>
+      <c r="AE42" s="89"/>
+      <c r="AF42" s="89"/>
+      <c r="AG42" s="89"/>
+      <c r="AH42" s="89"/>
+      <c r="AI42" s="89"/>
+      <c r="AJ42" s="89"/>
+      <c r="AK42" s="89"/>
+      <c r="AL42" s="89"/>
+      <c r="AM42" s="118"/>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B43" s="225"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="138"/>
-      <c r="S43" s="138"/>
-      <c r="T43" s="138"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="Y43" s="138"/>
-      <c r="Z43" s="138"/>
-      <c r="AA43" s="138"/>
-      <c r="AB43" s="138"/>
-      <c r="AC43" s="138"/>
-      <c r="AD43" s="138"/>
-      <c r="AE43" s="138"/>
-      <c r="AF43" s="138"/>
-      <c r="AG43" s="138"/>
-      <c r="AH43" s="138"/>
-      <c r="AI43" s="138"/>
-      <c r="AJ43" s="138"/>
-      <c r="AK43" s="138"/>
-      <c r="AL43" s="138"/>
-      <c r="AM43" s="226"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="100"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="100"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="100"/>
+      <c r="AA43" s="100"/>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="100"/>
+      <c r="AE43" s="100"/>
+      <c r="AF43" s="100"/>
+      <c r="AG43" s="100"/>
+      <c r="AH43" s="100"/>
+      <c r="AI43" s="100"/>
+      <c r="AJ43" s="100"/>
+      <c r="AK43" s="100"/>
+      <c r="AL43" s="100"/>
+      <c r="AM43" s="120"/>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="143"/>
-      <c r="O44" s="143"/>
-      <c r="P44" s="143"/>
-      <c r="Q44" s="143"/>
-      <c r="R44" s="143"/>
-      <c r="S44" s="143"/>
-      <c r="T44" s="143"/>
-      <c r="U44" s="143"/>
-      <c r="V44" s="143"/>
-      <c r="W44" s="143"/>
-      <c r="X44" s="143"/>
-      <c r="Y44" s="143"/>
-      <c r="Z44" s="143"/>
-      <c r="AA44" s="143"/>
-      <c r="AB44" s="143"/>
-      <c r="AC44" s="143"/>
-      <c r="AD44" s="143"/>
-      <c r="AE44" s="143"/>
-      <c r="AF44" s="143"/>
-      <c r="AG44" s="143"/>
-      <c r="AH44" s="143"/>
-      <c r="AI44" s="143"/>
-      <c r="AJ44" s="143"/>
-      <c r="AK44" s="143"/>
-      <c r="AL44" s="143"/>
-      <c r="AM44" s="185"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="96"/>
       <c r="AP44" s="24"/>
       <c r="AQ44" s="24"/>
       <c r="AR44" s="24"/>
     </row>
     <row r="45" spans="2:44" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="125"/>
-      <c r="V45" s="125"/>
-      <c r="W45" s="125"/>
-      <c r="X45" s="125"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="207" t="s">
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="110"/>
+      <c r="Z45" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="101"/>
-      <c r="AD45" s="101"/>
-      <c r="AE45" s="101"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="200" t="s">
+      <c r="AA45" s="89"/>
+      <c r="AB45" s="89"/>
+      <c r="AC45" s="89"/>
+      <c r="AD45" s="89"/>
+      <c r="AE45" s="89"/>
+      <c r="AF45" s="89"/>
+      <c r="AG45" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="AH45" s="101"/>
-      <c r="AI45" s="101"/>
-      <c r="AJ45" s="101"/>
-      <c r="AK45" s="101"/>
-      <c r="AL45" s="101"/>
-      <c r="AM45" s="122"/>
+      <c r="AH45" s="89"/>
+      <c r="AI45" s="89"/>
+      <c r="AJ45" s="89"/>
+      <c r="AK45" s="89"/>
+      <c r="AL45" s="89"/>
+      <c r="AM45" s="108"/>
     </row>
     <row r="46" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="160" t="s">
+      <c r="B46" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="125"/>
-      <c r="T46" s="125"/>
-      <c r="U46" s="125"/>
-      <c r="V46" s="125"/>
-      <c r="W46" s="125"/>
-      <c r="X46" s="125"/>
-      <c r="Y46" s="125"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
       <c r="Z46" s="29">
         <v>56</v>
       </c>
-      <c r="AA46" s="229">
+      <c r="AA46" s="181">
         <v>0</v>
       </c>
-      <c r="AB46" s="125"/>
-      <c r="AC46" s="125"/>
-      <c r="AD46" s="125"/>
-      <c r="AE46" s="125"/>
-      <c r="AF46" s="152"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="110"/>
+      <c r="AF46" s="124"/>
       <c r="AG46" s="16">
         <f>+Z52+1</f>
         <v>63</v>
       </c>
-      <c r="AH46" s="171">
+      <c r="AH46" s="196">
         <v>0</v>
       </c>
-      <c r="AI46" s="125"/>
-      <c r="AJ46" s="125"/>
-      <c r="AK46" s="125"/>
-      <c r="AL46" s="125"/>
-      <c r="AM46" s="172"/>
+      <c r="AI46" s="110"/>
+      <c r="AJ46" s="110"/>
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="110"/>
+      <c r="AM46" s="197"/>
     </row>
     <row r="47" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="101"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="101"/>
-      <c r="X47" s="101"/>
-      <c r="Y47" s="96"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="93"/>
       <c r="Z47" s="36">
         <f t="shared" ref="Z47:Z52" si="1">+Z46+1</f>
         <v>57</v>
       </c>
-      <c r="AA47" s="106">
+      <c r="AA47" s="148">
         <v>0</v>
       </c>
-      <c r="AB47" s="101"/>
-      <c r="AC47" s="101"/>
-      <c r="AD47" s="101"/>
-      <c r="AE47" s="101"/>
-      <c r="AF47" s="96"/>
+      <c r="AB47" s="89"/>
+      <c r="AC47" s="89"/>
+      <c r="AD47" s="89"/>
+      <c r="AE47" s="89"/>
+      <c r="AF47" s="93"/>
       <c r="AG47" s="37">
         <f t="shared" ref="AG47:AG53" si="2">+AG46+1</f>
         <v>64</v>
       </c>
-      <c r="AH47" s="173">
+      <c r="AH47" s="135">
         <v>0</v>
       </c>
-      <c r="AI47" s="101"/>
-      <c r="AJ47" s="101"/>
-      <c r="AK47" s="101"/>
-      <c r="AL47" s="101"/>
-      <c r="AM47" s="133"/>
+      <c r="AI47" s="89"/>
+      <c r="AJ47" s="89"/>
+      <c r="AK47" s="89"/>
+      <c r="AL47" s="89"/>
+      <c r="AM47" s="118"/>
     </row>
     <row r="48" spans="2:44" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="96"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="93"/>
       <c r="Z48" s="19">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="AA48" s="106">
+      <c r="AA48" s="148">
         <v>0</v>
       </c>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="101"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="96"/>
+      <c r="AB48" s="89"/>
+      <c r="AC48" s="89"/>
+      <c r="AD48" s="89"/>
+      <c r="AE48" s="89"/>
+      <c r="AF48" s="93"/>
       <c r="AG48" s="17">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AH48" s="173">
+      <c r="AH48" s="135">
         <v>0</v>
       </c>
-      <c r="AI48" s="101"/>
-      <c r="AJ48" s="101"/>
-      <c r="AK48" s="101"/>
-      <c r="AL48" s="101"/>
-      <c r="AM48" s="133"/>
+      <c r="AI48" s="89"/>
+      <c r="AJ48" s="89"/>
+      <c r="AK48" s="89"/>
+      <c r="AL48" s="89"/>
+      <c r="AM48" s="118"/>
     </row>
     <row r="49" spans="2:39" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="101"/>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
-      <c r="U49" s="101"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="101"/>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="96"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="93"/>
       <c r="Z49" s="36">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="AA49" s="106">
+      <c r="AA49" s="148">
         <v>0</v>
       </c>
-      <c r="AB49" s="101"/>
-      <c r="AC49" s="101"/>
-      <c r="AD49" s="101"/>
-      <c r="AE49" s="101"/>
-      <c r="AF49" s="96"/>
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="89"/>
+      <c r="AD49" s="89"/>
+      <c r="AE49" s="89"/>
+      <c r="AF49" s="93"/>
       <c r="AG49" s="37">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="AH49" s="173">
+      <c r="AH49" s="135">
         <f>+AH48*AA48</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="101"/>
-      <c r="AJ49" s="101"/>
-      <c r="AK49" s="101"/>
-      <c r="AL49" s="101"/>
-      <c r="AM49" s="133"/>
+      <c r="AI49" s="89"/>
+      <c r="AJ49" s="89"/>
+      <c r="AK49" s="89"/>
+      <c r="AL49" s="89"/>
+      <c r="AM49" s="118"/>
     </row>
     <row r="50" spans="2:39" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="186" t="s">
+      <c r="B50" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="101"/>
-      <c r="W50" s="101"/>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="96"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="93"/>
       <c r="Z50" s="38">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="AA50" s="180">
+      <c r="AA50" s="200">
         <v>0</v>
       </c>
-      <c r="AB50" s="101"/>
-      <c r="AC50" s="101"/>
-      <c r="AD50" s="101"/>
-      <c r="AE50" s="101"/>
-      <c r="AF50" s="96"/>
+      <c r="AB50" s="89"/>
+      <c r="AC50" s="89"/>
+      <c r="AD50" s="89"/>
+      <c r="AE50" s="89"/>
+      <c r="AF50" s="93"/>
       <c r="AG50" s="39">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="AH50" s="202">
+      <c r="AH50" s="168">
         <f>+AA50*AA49</f>
         <v>0</v>
       </c>
-      <c r="AI50" s="101"/>
-      <c r="AJ50" s="101"/>
-      <c r="AK50" s="101"/>
-      <c r="AL50" s="101"/>
-      <c r="AM50" s="133"/>
+      <c r="AI50" s="89"/>
+      <c r="AJ50" s="89"/>
+      <c r="AK50" s="89"/>
+      <c r="AL50" s="89"/>
+      <c r="AM50" s="118"/>
     </row>
     <row r="51" spans="2:39" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="101"/>
-      <c r="M51" s="101"/>
-      <c r="N51" s="101"/>
-      <c r="O51" s="101"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="101"/>
-      <c r="V51" s="101"/>
-      <c r="W51" s="101"/>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="96"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="93"/>
       <c r="Z51" s="36">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="AA51" s="106">
+      <c r="AA51" s="148">
         <v>0</v>
       </c>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="101"/>
-      <c r="AD51" s="101"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="96"/>
+      <c r="AB51" s="89"/>
+      <c r="AC51" s="89"/>
+      <c r="AD51" s="89"/>
+      <c r="AE51" s="89"/>
+      <c r="AF51" s="93"/>
       <c r="AG51" s="37">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="AH51" s="173">
+      <c r="AH51" s="135">
         <v>0</v>
       </c>
-      <c r="AI51" s="101"/>
-      <c r="AJ51" s="101"/>
-      <c r="AK51" s="101"/>
-      <c r="AL51" s="101"/>
-      <c r="AM51" s="133"/>
+      <c r="AI51" s="89"/>
+      <c r="AJ51" s="89"/>
+      <c r="AK51" s="89"/>
+      <c r="AL51" s="89"/>
+      <c r="AM51" s="118"/>
     </row>
     <row r="52" spans="2:39" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="223" t="s">
+      <c r="B52" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="101"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="101"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
       <c r="Z52" s="20">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="AA52" s="239">
+      <c r="AA52" s="130">
         <f>SUM(AA46:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AB52" s="101"/>
-      <c r="AC52" s="101"/>
-      <c r="AD52" s="101"/>
-      <c r="AE52" s="101"/>
-      <c r="AF52" s="96"/>
+      <c r="AB52" s="89"/>
+      <c r="AC52" s="89"/>
+      <c r="AD52" s="89"/>
+      <c r="AE52" s="89"/>
+      <c r="AF52" s="93"/>
       <c r="AG52" s="18">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="AH52" s="159">
+      <c r="AH52" s="184">
         <f>SUM(AH46:AM51)</f>
         <v>0</v>
       </c>
-      <c r="AI52" s="101"/>
-      <c r="AJ52" s="101"/>
-      <c r="AK52" s="101"/>
-      <c r="AL52" s="101"/>
-      <c r="AM52" s="133"/>
+      <c r="AI52" s="89"/>
+      <c r="AJ52" s="89"/>
+      <c r="AK52" s="89"/>
+      <c r="AL52" s="89"/>
+      <c r="AM52" s="118"/>
     </row>
     <row r="53" spans="2:39" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="138"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="138"/>
-      <c r="S53" s="138"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="138"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="138"/>
-      <c r="X53" s="138"/>
-      <c r="Y53" s="138"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="100"/>
+      <c r="U53" s="100"/>
+      <c r="V53" s="100"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="100"/>
+      <c r="Y53" s="100"/>
       <c r="Z53" s="40"/>
       <c r="AA53" s="40"/>
       <c r="AB53" s="40"/>
@@ -5914,1011 +5966,1033 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="AH53" s="201">
+      <c r="AH53" s="167">
         <f>+AD40+AH52</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="101"/>
-      <c r="AJ53" s="101"/>
-      <c r="AK53" s="101"/>
-      <c r="AL53" s="101"/>
-      <c r="AM53" s="122"/>
+      <c r="AI53" s="89"/>
+      <c r="AJ53" s="89"/>
+      <c r="AK53" s="89"/>
+      <c r="AL53" s="89"/>
+      <c r="AM53" s="108"/>
     </row>
     <row r="54" spans="2:39" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="227" t="s">
+      <c r="C54" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="143"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="143"/>
-      <c r="L54" s="143"/>
-      <c r="M54" s="143"/>
-      <c r="N54" s="143"/>
-      <c r="O54" s="143"/>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
-      <c r="S54" s="143"/>
-      <c r="T54" s="143"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="143"/>
-      <c r="X54" s="143"/>
-      <c r="Y54" s="143"/>
-      <c r="Z54" s="143"/>
-      <c r="AA54" s="143"/>
-      <c r="AB54" s="143"/>
-      <c r="AC54" s="143"/>
-      <c r="AD54" s="143"/>
-      <c r="AE54" s="143"/>
-      <c r="AF54" s="144"/>
-      <c r="AG54" s="235" t="s">
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
+      <c r="AF54" s="122"/>
+      <c r="AG54" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AH54" s="143"/>
-      <c r="AI54" s="143"/>
-      <c r="AJ54" s="143"/>
-      <c r="AK54" s="143"/>
-      <c r="AL54" s="143"/>
-      <c r="AM54" s="185"/>
+      <c r="AH54" s="95"/>
+      <c r="AI54" s="95"/>
+      <c r="AJ54" s="95"/>
+      <c r="AK54" s="95"/>
+      <c r="AL54" s="95"/>
+      <c r="AM54" s="96"/>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B55" s="86">
+      <c r="B55" s="83">
         <v>1</v>
       </c>
-      <c r="C55" s="161" t="s">
+      <c r="C55" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="125"/>
-      <c r="T55" s="125"/>
-      <c r="U55" s="125"/>
-      <c r="V55" s="125"/>
-      <c r="W55" s="125"/>
-      <c r="X55" s="125"/>
-      <c r="Y55" s="125"/>
-      <c r="Z55" s="125"/>
-      <c r="AA55" s="125"/>
-      <c r="AB55" s="125"/>
-      <c r="AC55" s="125"/>
-      <c r="AD55" s="125"/>
-      <c r="AE55" s="125"/>
-      <c r="AF55" s="152"/>
-      <c r="AG55" s="124">
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="110"/>
+      <c r="V55" s="110"/>
+      <c r="W55" s="110"/>
+      <c r="X55" s="110"/>
+      <c r="Y55" s="110"/>
+      <c r="Z55" s="110"/>
+      <c r="AA55" s="110"/>
+      <c r="AB55" s="110"/>
+      <c r="AC55" s="110"/>
+      <c r="AD55" s="110"/>
+      <c r="AE55" s="110"/>
+      <c r="AF55" s="124"/>
+      <c r="AG55" s="109">
         <v>0</v>
       </c>
-      <c r="AH55" s="125"/>
-      <c r="AI55" s="125"/>
-      <c r="AJ55" s="125"/>
-      <c r="AK55" s="125"/>
-      <c r="AL55" s="125"/>
-      <c r="AM55" s="126"/>
+      <c r="AH55" s="110"/>
+      <c r="AI55" s="110"/>
+      <c r="AJ55" s="110"/>
+      <c r="AK55" s="110"/>
+      <c r="AL55" s="110"/>
+      <c r="AM55" s="111"/>
     </row>
     <row r="56" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B56" s="87">
+      <c r="B56" s="84">
         <v>2</v>
       </c>
-      <c r="C56" s="161" t="s">
+      <c r="C56" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125"/>
-      <c r="Q56" s="125"/>
-      <c r="R56" s="125"/>
-      <c r="S56" s="125"/>
-      <c r="T56" s="125"/>
-      <c r="U56" s="125"/>
-      <c r="V56" s="125"/>
-      <c r="W56" s="125"/>
-      <c r="X56" s="125"/>
-      <c r="Y56" s="125"/>
-      <c r="Z56" s="125"/>
-      <c r="AA56" s="125"/>
-      <c r="AB56" s="125"/>
-      <c r="AC56" s="125"/>
-      <c r="AD56" s="125"/>
-      <c r="AE56" s="125"/>
-      <c r="AF56" s="152"/>
-      <c r="AG56" s="124">
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="110"/>
+      <c r="V56" s="110"/>
+      <c r="W56" s="110"/>
+      <c r="X56" s="110"/>
+      <c r="Y56" s="110"/>
+      <c r="Z56" s="110"/>
+      <c r="AA56" s="110"/>
+      <c r="AB56" s="110"/>
+      <c r="AC56" s="110"/>
+      <c r="AD56" s="110"/>
+      <c r="AE56" s="110"/>
+      <c r="AF56" s="124"/>
+      <c r="AG56" s="109">
         <v>0</v>
       </c>
-      <c r="AH56" s="125"/>
-      <c r="AI56" s="125"/>
-      <c r="AJ56" s="125"/>
-      <c r="AK56" s="125"/>
-      <c r="AL56" s="125"/>
-      <c r="AM56" s="126"/>
+      <c r="AH56" s="110"/>
+      <c r="AI56" s="110"/>
+      <c r="AJ56" s="110"/>
+      <c r="AK56" s="110"/>
+      <c r="AL56" s="110"/>
+      <c r="AM56" s="111"/>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B57" s="86">
+      <c r="B57" s="83">
         <v>3</v>
       </c>
-      <c r="C57" s="142"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="143"/>
-      <c r="S57" s="143"/>
-      <c r="T57" s="143"/>
-      <c r="U57" s="143"/>
-      <c r="V57" s="143"/>
-      <c r="W57" s="143"/>
-      <c r="X57" s="143"/>
-      <c r="Y57" s="143"/>
-      <c r="Z57" s="143"/>
-      <c r="AA57" s="143"/>
-      <c r="AB57" s="143"/>
-      <c r="AC57" s="143"/>
-      <c r="AD57" s="143"/>
-      <c r="AE57" s="143"/>
-      <c r="AF57" s="144"/>
-      <c r="AG57" s="184">
+      <c r="C57" s="136"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
+      <c r="X57" s="95"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="95"/>
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="95"/>
+      <c r="AF57" s="122"/>
+      <c r="AG57" s="94">
         <v>0</v>
       </c>
-      <c r="AH57" s="143"/>
-      <c r="AI57" s="143"/>
-      <c r="AJ57" s="143"/>
-      <c r="AK57" s="143"/>
-      <c r="AL57" s="143"/>
-      <c r="AM57" s="185"/>
+      <c r="AH57" s="95"/>
+      <c r="AI57" s="95"/>
+      <c r="AJ57" s="95"/>
+      <c r="AK57" s="95"/>
+      <c r="AL57" s="95"/>
+      <c r="AM57" s="96"/>
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B58" s="87">
+      <c r="B58" s="84">
         <v>4</v>
       </c>
-      <c r="C58" s="161"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="125"/>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
-      <c r="V58" s="125"/>
-      <c r="W58" s="125"/>
-      <c r="X58" s="125"/>
-      <c r="Y58" s="125"/>
-      <c r="Z58" s="125"/>
-      <c r="AA58" s="125"/>
-      <c r="AB58" s="125"/>
-      <c r="AC58" s="125"/>
-      <c r="AD58" s="125"/>
-      <c r="AE58" s="125"/>
-      <c r="AF58" s="152"/>
-      <c r="AG58" s="124">
+      <c r="C58" s="123"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
+      <c r="T58" s="110"/>
+      <c r="U58" s="110"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
+      <c r="X58" s="110"/>
+      <c r="Y58" s="110"/>
+      <c r="Z58" s="110"/>
+      <c r="AA58" s="110"/>
+      <c r="AB58" s="110"/>
+      <c r="AC58" s="110"/>
+      <c r="AD58" s="110"/>
+      <c r="AE58" s="110"/>
+      <c r="AF58" s="124"/>
+      <c r="AG58" s="109">
         <v>0</v>
       </c>
-      <c r="AH58" s="125"/>
-      <c r="AI58" s="125"/>
-      <c r="AJ58" s="125"/>
-      <c r="AK58" s="125"/>
-      <c r="AL58" s="125"/>
-      <c r="AM58" s="126"/>
+      <c r="AH58" s="110"/>
+      <c r="AI58" s="110"/>
+      <c r="AJ58" s="110"/>
+      <c r="AK58" s="110"/>
+      <c r="AL58" s="110"/>
+      <c r="AM58" s="111"/>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B59" s="86">
+      <c r="B59" s="83">
         <v>5</v>
       </c>
-      <c r="C59" s="142"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143"/>
-      <c r="R59" s="143"/>
-      <c r="S59" s="143"/>
-      <c r="T59" s="143"/>
-      <c r="U59" s="143"/>
-      <c r="V59" s="143"/>
-      <c r="W59" s="143"/>
-      <c r="X59" s="143"/>
-      <c r="Y59" s="143"/>
-      <c r="Z59" s="143"/>
-      <c r="AA59" s="143"/>
-      <c r="AB59" s="143"/>
-      <c r="AC59" s="143"/>
-      <c r="AD59" s="143"/>
-      <c r="AE59" s="143"/>
-      <c r="AF59" s="144"/>
-      <c r="AG59" s="184">
+      <c r="C59" s="136"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="95"/>
+      <c r="X59" s="95"/>
+      <c r="Y59" s="95"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="95"/>
+      <c r="AC59" s="95"/>
+      <c r="AD59" s="95"/>
+      <c r="AE59" s="95"/>
+      <c r="AF59" s="122"/>
+      <c r="AG59" s="94">
         <v>0</v>
       </c>
-      <c r="AH59" s="143"/>
-      <c r="AI59" s="143"/>
-      <c r="AJ59" s="143"/>
-      <c r="AK59" s="143"/>
-      <c r="AL59" s="143"/>
-      <c r="AM59" s="185"/>
+      <c r="AH59" s="95"/>
+      <c r="AI59" s="95"/>
+      <c r="AJ59" s="95"/>
+      <c r="AK59" s="95"/>
+      <c r="AL59" s="95"/>
+      <c r="AM59" s="96"/>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B60" s="87">
+      <c r="B60" s="84">
         <v>6</v>
       </c>
-      <c r="C60" s="161"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="125"/>
-      <c r="Q60" s="125"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="125"/>
-      <c r="T60" s="125"/>
-      <c r="U60" s="125"/>
-      <c r="V60" s="125"/>
-      <c r="W60" s="125"/>
-      <c r="X60" s="125"/>
-      <c r="Y60" s="125"/>
-      <c r="Z60" s="125"/>
-      <c r="AA60" s="125"/>
-      <c r="AB60" s="125"/>
-      <c r="AC60" s="125"/>
-      <c r="AD60" s="125"/>
-      <c r="AE60" s="125"/>
-      <c r="AF60" s="152"/>
-      <c r="AG60" s="124">
+      <c r="C60" s="123"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="110"/>
+      <c r="N60" s="110"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="110"/>
+      <c r="T60" s="110"/>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
+      <c r="W60" s="110"/>
+      <c r="X60" s="110"/>
+      <c r="Y60" s="110"/>
+      <c r="Z60" s="110"/>
+      <c r="AA60" s="110"/>
+      <c r="AB60" s="110"/>
+      <c r="AC60" s="110"/>
+      <c r="AD60" s="110"/>
+      <c r="AE60" s="110"/>
+      <c r="AF60" s="124"/>
+      <c r="AG60" s="109">
         <v>0</v>
       </c>
-      <c r="AH60" s="125"/>
-      <c r="AI60" s="125"/>
-      <c r="AJ60" s="125"/>
-      <c r="AK60" s="125"/>
-      <c r="AL60" s="125"/>
-      <c r="AM60" s="126"/>
+      <c r="AH60" s="110"/>
+      <c r="AI60" s="110"/>
+      <c r="AJ60" s="110"/>
+      <c r="AK60" s="110"/>
+      <c r="AL60" s="110"/>
+      <c r="AM60" s="111"/>
     </row>
     <row r="61" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B61" s="86">
+      <c r="B61" s="83">
         <v>7</v>
       </c>
-      <c r="C61" s="161" t="s">
+      <c r="C61" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="125"/>
-      <c r="M61" s="125"/>
-      <c r="N61" s="125"/>
-      <c r="O61" s="125"/>
-      <c r="P61" s="125"/>
-      <c r="Q61" s="125"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="125"/>
-      <c r="T61" s="125"/>
-      <c r="U61" s="125"/>
-      <c r="V61" s="125"/>
-      <c r="W61" s="125"/>
-      <c r="X61" s="125"/>
-      <c r="Y61" s="125"/>
-      <c r="Z61" s="125"/>
-      <c r="AA61" s="125"/>
-      <c r="AB61" s="125"/>
-      <c r="AC61" s="125"/>
-      <c r="AD61" s="125"/>
-      <c r="AE61" s="125"/>
-      <c r="AF61" s="152"/>
-      <c r="AG61" s="192">
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="110"/>
+      <c r="L61" s="110"/>
+      <c r="M61" s="110"/>
+      <c r="N61" s="110"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="110"/>
+      <c r="T61" s="110"/>
+      <c r="U61" s="110"/>
+      <c r="V61" s="110"/>
+      <c r="W61" s="110"/>
+      <c r="X61" s="110"/>
+      <c r="Y61" s="110"/>
+      <c r="Z61" s="110"/>
+      <c r="AA61" s="110"/>
+      <c r="AB61" s="110"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="110"/>
+      <c r="AE61" s="110"/>
+      <c r="AF61" s="124"/>
+      <c r="AG61" s="155">
         <v>0</v>
       </c>
-      <c r="AH61" s="143"/>
-      <c r="AI61" s="143"/>
-      <c r="AJ61" s="143"/>
-      <c r="AK61" s="143"/>
-      <c r="AL61" s="143"/>
-      <c r="AM61" s="185"/>
+      <c r="AH61" s="95"/>
+      <c r="AI61" s="95"/>
+      <c r="AJ61" s="95"/>
+      <c r="AK61" s="95"/>
+      <c r="AL61" s="95"/>
+      <c r="AM61" s="96"/>
     </row>
     <row r="62" spans="2:39" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="134" t="s">
+      <c r="B62" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="135"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="135"/>
-      <c r="S62" s="135"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="135"/>
-      <c r="V62" s="135"/>
-      <c r="W62" s="135"/>
-      <c r="X62" s="135"/>
-      <c r="Y62" s="135"/>
-      <c r="Z62" s="135"/>
-      <c r="AA62" s="135"/>
-      <c r="AB62" s="135"/>
-      <c r="AC62" s="135"/>
-      <c r="AD62" s="135"/>
-      <c r="AE62" s="135"/>
-      <c r="AF62" s="136"/>
-      <c r="AG62" s="88">
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="146"/>
+      <c r="N62" s="146"/>
+      <c r="O62" s="146"/>
+      <c r="P62" s="146"/>
+      <c r="Q62" s="146"/>
+      <c r="R62" s="146"/>
+      <c r="S62" s="146"/>
+      <c r="T62" s="146"/>
+      <c r="U62" s="146"/>
+      <c r="V62" s="146"/>
+      <c r="W62" s="146"/>
+      <c r="X62" s="146"/>
+      <c r="Y62" s="146"/>
+      <c r="Z62" s="146"/>
+      <c r="AA62" s="146"/>
+      <c r="AB62" s="146"/>
+      <c r="AC62" s="146"/>
+      <c r="AD62" s="146"/>
+      <c r="AE62" s="146"/>
+      <c r="AF62" s="235"/>
+      <c r="AG62" s="85">
         <v>73</v>
       </c>
-      <c r="AH62" s="217">
+      <c r="AH62" s="145">
         <v>0</v>
       </c>
-      <c r="AI62" s="135"/>
-      <c r="AJ62" s="135"/>
-      <c r="AK62" s="135"/>
-      <c r="AL62" s="135"/>
-      <c r="AM62" s="218"/>
+      <c r="AI62" s="146"/>
+      <c r="AJ62" s="146"/>
+      <c r="AK62" s="146"/>
+      <c r="AL62" s="146"/>
+      <c r="AM62" s="147"/>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B63" s="164" t="s">
+      <c r="B63" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="165"/>
-      <c r="L63" s="165"/>
-      <c r="M63" s="165"/>
-      <c r="N63" s="165"/>
-      <c r="O63" s="165"/>
-      <c r="P63" s="165"/>
-      <c r="Q63" s="165"/>
-      <c r="R63" s="165"/>
-      <c r="S63" s="165"/>
-      <c r="T63" s="165"/>
-      <c r="U63" s="165"/>
-      <c r="V63" s="165"/>
-      <c r="W63" s="165"/>
-      <c r="X63" s="165"/>
-      <c r="Y63" s="165"/>
-      <c r="Z63" s="165"/>
-      <c r="AA63" s="165"/>
-      <c r="AB63" s="165"/>
-      <c r="AC63" s="165"/>
-      <c r="AD63" s="165"/>
-      <c r="AE63" s="165"/>
-      <c r="AF63" s="165"/>
-      <c r="AG63" s="165"/>
-      <c r="AH63" s="165"/>
-      <c r="AI63" s="165"/>
-      <c r="AJ63" s="165"/>
-      <c r="AK63" s="165"/>
-      <c r="AL63" s="165"/>
-      <c r="AM63" s="166"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="189"/>
+      <c r="K63" s="189"/>
+      <c r="L63" s="189"/>
+      <c r="M63" s="189"/>
+      <c r="N63" s="189"/>
+      <c r="O63" s="189"/>
+      <c r="P63" s="189"/>
+      <c r="Q63" s="189"/>
+      <c r="R63" s="189"/>
+      <c r="S63" s="189"/>
+      <c r="T63" s="189"/>
+      <c r="U63" s="189"/>
+      <c r="V63" s="189"/>
+      <c r="W63" s="189"/>
+      <c r="X63" s="189"/>
+      <c r="Y63" s="189"/>
+      <c r="Z63" s="189"/>
+      <c r="AA63" s="189"/>
+      <c r="AB63" s="189"/>
+      <c r="AC63" s="189"/>
+      <c r="AD63" s="189"/>
+      <c r="AE63" s="189"/>
+      <c r="AF63" s="189"/>
+      <c r="AG63" s="189"/>
+      <c r="AH63" s="189"/>
+      <c r="AI63" s="189"/>
+      <c r="AJ63" s="189"/>
+      <c r="AK63" s="189"/>
+      <c r="AL63" s="189"/>
+      <c r="AM63" s="190"/>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B64" s="187" t="s">
+      <c r="B64" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="91" t="s">
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
-      <c r="M64" s="92"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="236" t="s">
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="105"/>
+      <c r="O64" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="P64" s="92"/>
-      <c r="Q64" s="92"/>
-      <c r="R64" s="92"/>
-      <c r="S64" s="92"/>
-      <c r="T64" s="92"/>
-      <c r="U64" s="92"/>
-      <c r="V64" s="92"/>
-      <c r="W64" s="92"/>
-      <c r="X64" s="92"/>
-      <c r="Y64" s="92"/>
-      <c r="Z64" s="92"/>
-      <c r="AA64" s="92"/>
-      <c r="AB64" s="92"/>
-      <c r="AC64" s="92"/>
-      <c r="AD64" s="92"/>
-      <c r="AE64" s="92"/>
-      <c r="AF64" s="93"/>
-      <c r="AG64" s="230" t="s">
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104"/>
+      <c r="Z64" s="104"/>
+      <c r="AA64" s="104"/>
+      <c r="AB64" s="104"/>
+      <c r="AC64" s="104"/>
+      <c r="AD64" s="104"/>
+      <c r="AE64" s="104"/>
+      <c r="AF64" s="105"/>
+      <c r="AG64" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="AH64" s="92"/>
-      <c r="AI64" s="92"/>
-      <c r="AJ64" s="92"/>
-      <c r="AK64" s="92"/>
-      <c r="AL64" s="92"/>
-      <c r="AM64" s="231"/>
+      <c r="AH64" s="104"/>
+      <c r="AI64" s="104"/>
+      <c r="AJ64" s="104"/>
+      <c r="AK64" s="104"/>
+      <c r="AL64" s="104"/>
+      <c r="AM64" s="208"/>
     </row>
     <row r="65" spans="2:41" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="149"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="178" t="s">
+      <c r="B65" s="212"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="206"/>
+      <c r="J65" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112"/>
-      <c r="M65" s="112"/>
-      <c r="N65" s="150"/>
-      <c r="O65" s="178"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
-      <c r="R65" s="112"/>
-      <c r="S65" s="112"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="112"/>
-      <c r="Y65" s="112"/>
-      <c r="Z65" s="112"/>
-      <c r="AA65" s="112"/>
-      <c r="AB65" s="112"/>
-      <c r="AC65" s="112"/>
-      <c r="AD65" s="112"/>
-      <c r="AE65" s="112"/>
-      <c r="AF65" s="150"/>
-      <c r="AG65" s="213" t="s">
+      <c r="K65" s="141"/>
+      <c r="L65" s="141"/>
+      <c r="M65" s="141"/>
+      <c r="N65" s="206"/>
+      <c r="O65" s="205"/>
+      <c r="P65" s="141"/>
+      <c r="Q65" s="141"/>
+      <c r="R65" s="141"/>
+      <c r="S65" s="141"/>
+      <c r="T65" s="141"/>
+      <c r="U65" s="141"/>
+      <c r="V65" s="141"/>
+      <c r="W65" s="141"/>
+      <c r="X65" s="141"/>
+      <c r="Y65" s="141"/>
+      <c r="Z65" s="141"/>
+      <c r="AA65" s="141"/>
+      <c r="AB65" s="141"/>
+      <c r="AC65" s="141"/>
+      <c r="AD65" s="141"/>
+      <c r="AE65" s="141"/>
+      <c r="AF65" s="206"/>
+      <c r="AG65" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="AH65" s="112"/>
-      <c r="AI65" s="112"/>
-      <c r="AJ65" s="112"/>
-      <c r="AK65" s="112"/>
-      <c r="AL65" s="112"/>
-      <c r="AM65" s="214"/>
+      <c r="AH65" s="141"/>
+      <c r="AI65" s="141"/>
+      <c r="AJ65" s="141"/>
+      <c r="AK65" s="141"/>
+      <c r="AL65" s="141"/>
+      <c r="AM65" s="142"/>
     </row>
     <row r="66" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="107" t="s">
+      <c r="B66" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="108"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="108"/>
-      <c r="M66" s="108"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="108"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
-      <c r="S66" s="108"/>
-      <c r="T66" s="108"/>
-      <c r="U66" s="108"/>
-      <c r="V66" s="108"/>
-      <c r="W66" s="108"/>
-      <c r="X66" s="108"/>
-      <c r="Y66" s="108"/>
-      <c r="Z66" s="108"/>
-      <c r="AA66" s="108"/>
-      <c r="AB66" s="109"/>
-      <c r="AC66" s="205" t="s">
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+      <c r="W66" s="128"/>
+      <c r="X66" s="128"/>
+      <c r="Y66" s="128"/>
+      <c r="Z66" s="128"/>
+      <c r="AA66" s="128"/>
+      <c r="AB66" s="134"/>
+      <c r="AC66" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="AD66" s="108"/>
-      <c r="AE66" s="108"/>
-      <c r="AF66" s="108"/>
-      <c r="AG66" s="108"/>
-      <c r="AH66" s="108"/>
-      <c r="AI66" s="108"/>
-      <c r="AJ66" s="108"/>
-      <c r="AK66" s="108"/>
-      <c r="AL66" s="108"/>
-      <c r="AM66" s="109"/>
+      <c r="AD66" s="128"/>
+      <c r="AE66" s="128"/>
+      <c r="AF66" s="128"/>
+      <c r="AG66" s="128"/>
+      <c r="AH66" s="128"/>
+      <c r="AI66" s="128"/>
+      <c r="AJ66" s="128"/>
+      <c r="AK66" s="128"/>
+      <c r="AL66" s="128"/>
+      <c r="AM66" s="134"/>
       <c r="AO66" s="15"/>
     </row>
     <row r="67" spans="2:41" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="110"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="101"/>
-      <c r="P67" s="101"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
-      <c r="U67" s="101"/>
-      <c r="V67" s="101"/>
-      <c r="W67" s="101"/>
-      <c r="X67" s="101"/>
-      <c r="Y67" s="101"/>
-      <c r="Z67" s="101"/>
-      <c r="AA67" s="101"/>
-      <c r="AB67" s="102"/>
-      <c r="AC67" s="123"/>
-      <c r="AD67" s="101"/>
-      <c r="AE67" s="101"/>
-      <c r="AF67" s="101"/>
-      <c r="AG67" s="101"/>
-      <c r="AH67" s="101"/>
-      <c r="AI67" s="101"/>
-      <c r="AJ67" s="101"/>
-      <c r="AK67" s="101"/>
-      <c r="AL67" s="101"/>
-      <c r="AM67" s="102"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="89"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="89"/>
+      <c r="Y67" s="89"/>
+      <c r="Z67" s="89"/>
+      <c r="AA67" s="89"/>
+      <c r="AB67" s="220"/>
+      <c r="AC67" s="231"/>
+      <c r="AD67" s="89"/>
+      <c r="AE67" s="89"/>
+      <c r="AF67" s="89"/>
+      <c r="AG67" s="89"/>
+      <c r="AH67" s="89"/>
+      <c r="AI67" s="89"/>
+      <c r="AJ67" s="89"/>
+      <c r="AK67" s="89"/>
+      <c r="AL67" s="89"/>
+      <c r="AM67" s="220"/>
     </row>
     <row r="68" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="110"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="101"/>
-      <c r="J68" s="101"/>
-      <c r="K68" s="101"/>
-      <c r="L68" s="101"/>
-      <c r="M68" s="101"/>
-      <c r="N68" s="101"/>
-      <c r="O68" s="101"/>
-      <c r="P68" s="101"/>
-      <c r="Q68" s="101"/>
-      <c r="R68" s="101"/>
-      <c r="S68" s="101"/>
-      <c r="T68" s="101"/>
-      <c r="U68" s="101"/>
-      <c r="V68" s="101"/>
-      <c r="W68" s="101"/>
-      <c r="X68" s="101"/>
-      <c r="Y68" s="101"/>
-      <c r="Z68" s="101"/>
-      <c r="AA68" s="101"/>
-      <c r="AB68" s="102"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="101"/>
-      <c r="AE68" s="101"/>
-      <c r="AF68" s="101"/>
-      <c r="AG68" s="101"/>
-      <c r="AH68" s="101"/>
-      <c r="AI68" s="101"/>
-      <c r="AJ68" s="101"/>
-      <c r="AK68" s="101"/>
-      <c r="AL68" s="101"/>
-      <c r="AM68" s="102"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="89"/>
+      <c r="V68" s="89"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="89"/>
+      <c r="AA68" s="89"/>
+      <c r="AB68" s="220"/>
+      <c r="AC68" s="225"/>
+      <c r="AD68" s="89"/>
+      <c r="AE68" s="89"/>
+      <c r="AF68" s="89"/>
+      <c r="AG68" s="89"/>
+      <c r="AH68" s="89"/>
+      <c r="AI68" s="89"/>
+      <c r="AJ68" s="89"/>
+      <c r="AK68" s="89"/>
+      <c r="AL68" s="89"/>
+      <c r="AM68" s="220"/>
     </row>
     <row r="69" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="110"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="101"/>
-      <c r="K69" s="101"/>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
-      <c r="U69" s="101"/>
-      <c r="V69" s="101"/>
-      <c r="W69" s="101"/>
-      <c r="X69" s="101"/>
-      <c r="Y69" s="101"/>
-      <c r="Z69" s="101"/>
-      <c r="AA69" s="101"/>
-      <c r="AB69" s="102"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="101"/>
-      <c r="AE69" s="101"/>
-      <c r="AF69" s="101"/>
-      <c r="AG69" s="101"/>
-      <c r="AH69" s="101"/>
-      <c r="AI69" s="101"/>
-      <c r="AJ69" s="101"/>
-      <c r="AK69" s="101"/>
-      <c r="AL69" s="101"/>
-      <c r="AM69" s="102"/>
+      <c r="B69" s="225"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="89"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="89"/>
+      <c r="Y69" s="89"/>
+      <c r="Z69" s="89"/>
+      <c r="AA69" s="89"/>
+      <c r="AB69" s="220"/>
+      <c r="AC69" s="225"/>
+      <c r="AD69" s="89"/>
+      <c r="AE69" s="89"/>
+      <c r="AF69" s="89"/>
+      <c r="AG69" s="89"/>
+      <c r="AH69" s="89"/>
+      <c r="AI69" s="89"/>
+      <c r="AJ69" s="89"/>
+      <c r="AK69" s="89"/>
+      <c r="AL69" s="89"/>
+      <c r="AM69" s="220"/>
       <c r="AO69" s="13"/>
     </row>
     <row r="70" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="110"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="101"/>
-      <c r="H70" s="101"/>
-      <c r="I70" s="101"/>
-      <c r="J70" s="101"/>
-      <c r="K70" s="101"/>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
-      <c r="N70" s="101"/>
-      <c r="O70" s="101"/>
-      <c r="P70" s="101"/>
-      <c r="Q70" s="101"/>
-      <c r="R70" s="101"/>
-      <c r="S70" s="101"/>
-      <c r="T70" s="101"/>
-      <c r="U70" s="101"/>
-      <c r="V70" s="101"/>
-      <c r="W70" s="101"/>
-      <c r="X70" s="101"/>
-      <c r="Y70" s="101"/>
-      <c r="Z70" s="101"/>
-      <c r="AA70" s="101"/>
-      <c r="AB70" s="102"/>
-      <c r="AC70" s="110"/>
-      <c r="AD70" s="101"/>
-      <c r="AE70" s="101"/>
-      <c r="AF70" s="101"/>
-      <c r="AG70" s="101"/>
-      <c r="AH70" s="101"/>
-      <c r="AI70" s="101"/>
-      <c r="AJ70" s="101"/>
-      <c r="AK70" s="101"/>
-      <c r="AL70" s="101"/>
-      <c r="AM70" s="102"/>
+      <c r="B70" s="225"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
+      <c r="V70" s="89"/>
+      <c r="W70" s="89"/>
+      <c r="X70" s="89"/>
+      <c r="Y70" s="89"/>
+      <c r="Z70" s="89"/>
+      <c r="AA70" s="89"/>
+      <c r="AB70" s="220"/>
+      <c r="AC70" s="225"/>
+      <c r="AD70" s="89"/>
+      <c r="AE70" s="89"/>
+      <c r="AF70" s="89"/>
+      <c r="AG70" s="89"/>
+      <c r="AH70" s="89"/>
+      <c r="AI70" s="89"/>
+      <c r="AJ70" s="89"/>
+      <c r="AK70" s="89"/>
+      <c r="AL70" s="89"/>
+      <c r="AM70" s="220"/>
       <c r="AO70" s="13"/>
     </row>
     <row r="71" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="110"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="101"/>
-      <c r="J71" s="101"/>
-      <c r="K71" s="101"/>
-      <c r="L71" s="101"/>
-      <c r="M71" s="101"/>
-      <c r="N71" s="101"/>
-      <c r="O71" s="101"/>
-      <c r="P71" s="101"/>
-      <c r="Q71" s="101"/>
-      <c r="R71" s="101"/>
-      <c r="S71" s="101"/>
-      <c r="T71" s="101"/>
-      <c r="U71" s="101"/>
-      <c r="V71" s="101"/>
-      <c r="W71" s="101"/>
-      <c r="X71" s="101"/>
-      <c r="Y71" s="101"/>
-      <c r="Z71" s="101"/>
-      <c r="AA71" s="101"/>
-      <c r="AB71" s="102"/>
-      <c r="AC71" s="110"/>
-      <c r="AD71" s="101"/>
-      <c r="AE71" s="101"/>
-      <c r="AF71" s="101"/>
-      <c r="AG71" s="101"/>
-      <c r="AH71" s="101"/>
-      <c r="AI71" s="101"/>
-      <c r="AJ71" s="101"/>
-      <c r="AK71" s="101"/>
-      <c r="AL71" s="101"/>
-      <c r="AM71" s="102"/>
+      <c r="B71" s="225"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="89"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="89"/>
+      <c r="P71" s="89"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="89"/>
+      <c r="S71" s="89"/>
+      <c r="T71" s="89"/>
+      <c r="U71" s="89"/>
+      <c r="V71" s="89"/>
+      <c r="W71" s="89"/>
+      <c r="X71" s="89"/>
+      <c r="Y71" s="89"/>
+      <c r="Z71" s="89"/>
+      <c r="AA71" s="89"/>
+      <c r="AB71" s="220"/>
+      <c r="AC71" s="225"/>
+      <c r="AD71" s="89"/>
+      <c r="AE71" s="89"/>
+      <c r="AF71" s="89"/>
+      <c r="AG71" s="89"/>
+      <c r="AH71" s="89"/>
+      <c r="AI71" s="89"/>
+      <c r="AJ71" s="89"/>
+      <c r="AK71" s="89"/>
+      <c r="AL71" s="89"/>
+      <c r="AM71" s="220"/>
       <c r="AO71" s="13"/>
     </row>
     <row r="72" spans="2:41" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="111"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="112"/>
-      <c r="L72" s="112"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="112"/>
-      <c r="O72" s="112"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
-      <c r="R72" s="112"/>
-      <c r="S72" s="112"/>
-      <c r="T72" s="112"/>
-      <c r="U72" s="112"/>
-      <c r="V72" s="112"/>
-      <c r="W72" s="112"/>
-      <c r="X72" s="112"/>
-      <c r="Y72" s="112"/>
-      <c r="Z72" s="112"/>
-      <c r="AA72" s="112"/>
-      <c r="AB72" s="113"/>
-      <c r="AC72" s="111"/>
-      <c r="AD72" s="112"/>
-      <c r="AE72" s="112"/>
-      <c r="AF72" s="112"/>
-      <c r="AG72" s="112"/>
-      <c r="AH72" s="112"/>
-      <c r="AI72" s="112"/>
-      <c r="AJ72" s="112"/>
-      <c r="AK72" s="112"/>
-      <c r="AL72" s="112"/>
-      <c r="AM72" s="113"/>
+      <c r="B72" s="226"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="141"/>
+      <c r="J72" s="141"/>
+      <c r="K72" s="141"/>
+      <c r="L72" s="141"/>
+      <c r="M72" s="141"/>
+      <c r="N72" s="141"/>
+      <c r="O72" s="141"/>
+      <c r="P72" s="141"/>
+      <c r="Q72" s="141"/>
+      <c r="R72" s="141"/>
+      <c r="S72" s="141"/>
+      <c r="T72" s="141"/>
+      <c r="U72" s="141"/>
+      <c r="V72" s="141"/>
+      <c r="W72" s="141"/>
+      <c r="X72" s="141"/>
+      <c r="Y72" s="141"/>
+      <c r="Z72" s="141"/>
+      <c r="AA72" s="141"/>
+      <c r="AB72" s="227"/>
+      <c r="AC72" s="226"/>
+      <c r="AD72" s="141"/>
+      <c r="AE72" s="141"/>
+      <c r="AF72" s="141"/>
+      <c r="AG72" s="141"/>
+      <c r="AH72" s="141"/>
+      <c r="AI72" s="141"/>
+      <c r="AJ72" s="141"/>
+      <c r="AK72" s="141"/>
+      <c r="AL72" s="141"/>
+      <c r="AM72" s="227"/>
     </row>
     <row r="73" spans="2:41" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="238"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="108"/>
-      <c r="M73" s="108"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="108"/>
-      <c r="T73" s="108"/>
-      <c r="U73" s="108"/>
-      <c r="V73" s="108"/>
-      <c r="W73" s="108"/>
-      <c r="X73" s="108"/>
-      <c r="Y73" s="108"/>
-      <c r="Z73" s="108"/>
-      <c r="AA73" s="108"/>
-      <c r="AB73" s="108"/>
-      <c r="AC73" s="108"/>
-      <c r="AD73" s="108"/>
-      <c r="AE73" s="108"/>
-      <c r="AF73" s="108"/>
-      <c r="AG73" s="108"/>
-      <c r="AH73" s="108"/>
-      <c r="AI73" s="108"/>
-      <c r="AJ73" s="108"/>
-      <c r="AK73" s="108"/>
-      <c r="AL73" s="108"/>
-      <c r="AM73" s="108"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="128"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="128"/>
+      <c r="T73" s="128"/>
+      <c r="U73" s="128"/>
+      <c r="V73" s="128"/>
+      <c r="W73" s="128"/>
+      <c r="X73" s="128"/>
+      <c r="Y73" s="128"/>
+      <c r="Z73" s="128"/>
+      <c r="AA73" s="128"/>
+      <c r="AB73" s="128"/>
+      <c r="AC73" s="128"/>
+      <c r="AD73" s="128"/>
+      <c r="AE73" s="128"/>
+      <c r="AF73" s="128"/>
+      <c r="AG73" s="128"/>
+      <c r="AH73" s="128"/>
+      <c r="AI73" s="128"/>
+      <c r="AJ73" s="128"/>
+      <c r="AK73" s="128"/>
+      <c r="AL73" s="128"/>
+      <c r="AM73" s="128"/>
     </row>
     <row r="74" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="101"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="101"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
-      <c r="M74" s="101"/>
-      <c r="N74" s="101"/>
-      <c r="O74" s="101"/>
-      <c r="P74" s="101"/>
-      <c r="Q74" s="101"/>
-      <c r="R74" s="101"/>
-      <c r="S74" s="101"/>
-      <c r="T74" s="101"/>
-      <c r="U74" s="101"/>
-      <c r="V74" s="101"/>
-      <c r="W74" s="101"/>
-      <c r="X74" s="101"/>
-      <c r="Y74" s="101"/>
-      <c r="Z74" s="101"/>
-      <c r="AA74" s="101"/>
-      <c r="AB74" s="101"/>
-      <c r="AC74" s="101"/>
-      <c r="AD74" s="101"/>
-      <c r="AE74" s="101"/>
-      <c r="AF74" s="101"/>
-      <c r="AG74" s="101"/>
-      <c r="AH74" s="101"/>
-      <c r="AI74" s="101"/>
-      <c r="AJ74" s="101"/>
-      <c r="AK74" s="101"/>
-      <c r="AL74" s="101"/>
-      <c r="AM74" s="101"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="89"/>
+      <c r="M74" s="89"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="89"/>
+      <c r="P74" s="89"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="89"/>
+      <c r="S74" s="89"/>
+      <c r="T74" s="89"/>
+      <c r="U74" s="89"/>
+      <c r="V74" s="89"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="89"/>
+      <c r="AB74" s="89"/>
+      <c r="AC74" s="89"/>
+      <c r="AD74" s="89"/>
+      <c r="AE74" s="89"/>
+      <c r="AF74" s="89"/>
+      <c r="AG74" s="89"/>
+      <c r="AH74" s="89"/>
+      <c r="AI74" s="89"/>
+      <c r="AJ74" s="89"/>
+      <c r="AK74" s="89"/>
+      <c r="AL74" s="89"/>
+      <c r="AM74" s="89"/>
     </row>
     <row r="75" spans="2:41" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="101"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="101"/>
-      <c r="J75" s="101"/>
-      <c r="K75" s="101"/>
-      <c r="L75" s="101"/>
-      <c r="M75" s="101"/>
-      <c r="N75" s="101"/>
-      <c r="O75" s="101"/>
-      <c r="P75" s="101"/>
-      <c r="Q75" s="101"/>
-      <c r="R75" s="101"/>
-      <c r="S75" s="101"/>
-      <c r="T75" s="101"/>
-      <c r="U75" s="101"/>
-      <c r="V75" s="101"/>
-      <c r="W75" s="101"/>
-      <c r="X75" s="101"/>
-      <c r="Y75" s="101"/>
-      <c r="Z75" s="101"/>
-      <c r="AA75" s="101"/>
-      <c r="AB75" s="101"/>
-      <c r="AC75" s="101"/>
-      <c r="AD75" s="101"/>
-      <c r="AE75" s="101"/>
-      <c r="AF75" s="101"/>
-      <c r="AG75" s="101"/>
-      <c r="AH75" s="101"/>
-      <c r="AI75" s="101"/>
-      <c r="AJ75" s="101"/>
-      <c r="AK75" s="101"/>
-      <c r="AL75" s="101"/>
-      <c r="AM75" s="101"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="89"/>
+      <c r="S75" s="89"/>
+      <c r="T75" s="89"/>
+      <c r="U75" s="89"/>
+      <c r="V75" s="89"/>
+      <c r="W75" s="89"/>
+      <c r="X75" s="89"/>
+      <c r="Y75" s="89"/>
+      <c r="Z75" s="89"/>
+      <c r="AA75" s="89"/>
+      <c r="AB75" s="89"/>
+      <c r="AC75" s="89"/>
+      <c r="AD75" s="89"/>
+      <c r="AE75" s="89"/>
+      <c r="AF75" s="89"/>
+      <c r="AG75" s="89"/>
+      <c r="AH75" s="89"/>
+      <c r="AI75" s="89"/>
+      <c r="AJ75" s="89"/>
+      <c r="AK75" s="89"/>
+      <c r="AL75" s="89"/>
+      <c r="AM75" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="B31:AB31"/>
-    <mergeCell ref="AG57:AM57"/>
-    <mergeCell ref="B19:AB19"/>
-    <mergeCell ref="AD33:AM33"/>
-    <mergeCell ref="AG54:AM54"/>
-    <mergeCell ref="O64:AF64"/>
-    <mergeCell ref="AC34:AM34"/>
-    <mergeCell ref="AD35:AM35"/>
-    <mergeCell ref="AG56:AM56"/>
-    <mergeCell ref="B36:AB36"/>
-    <mergeCell ref="B73:AM75"/>
-    <mergeCell ref="AD28:AM28"/>
-    <mergeCell ref="AA52:AF52"/>
-    <mergeCell ref="AD27:AM27"/>
-    <mergeCell ref="AD36:AM36"/>
-    <mergeCell ref="AD30:AM30"/>
-    <mergeCell ref="B22:AB22"/>
-    <mergeCell ref="AC66:AM66"/>
-    <mergeCell ref="C55:AF55"/>
-    <mergeCell ref="AH48:AM48"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="C59:AF59"/>
-    <mergeCell ref="Z45:AF45"/>
-    <mergeCell ref="B34:AB34"/>
-    <mergeCell ref="B28:AB28"/>
-    <mergeCell ref="B37:AB37"/>
-    <mergeCell ref="C61:AF61"/>
-    <mergeCell ref="B30:AB30"/>
-    <mergeCell ref="AG65:AM65"/>
-    <mergeCell ref="B20:AB20"/>
-    <mergeCell ref="B51:Y51"/>
-    <mergeCell ref="B44:AM44"/>
-    <mergeCell ref="AD25:AM25"/>
-    <mergeCell ref="AH62:AM62"/>
-    <mergeCell ref="AD31:AM31"/>
-    <mergeCell ref="AA48:AF48"/>
-    <mergeCell ref="B52:Y52"/>
-    <mergeCell ref="B42:AM43"/>
-    <mergeCell ref="C54:AF54"/>
-    <mergeCell ref="C56:AF56"/>
-    <mergeCell ref="B53:Y53"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="AD40:AM40"/>
-    <mergeCell ref="D15:E15"/>
+  <mergeCells count="139">
+    <mergeCell ref="H3:AG5"/>
+    <mergeCell ref="AA49:AF49"/>
+    <mergeCell ref="B66:AB72"/>
+    <mergeCell ref="B39:AB39"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="AD22:AM22"/>
+    <mergeCell ref="AC67:AM72"/>
+    <mergeCell ref="B23:AB23"/>
+    <mergeCell ref="AG58:AM58"/>
+    <mergeCell ref="AD37:AM37"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="AG60:AM60"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AD24:AM24"/>
+    <mergeCell ref="AD38:AM38"/>
+    <mergeCell ref="B62:AF62"/>
+    <mergeCell ref="AA51:AF51"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="H14:S14"/>
+    <mergeCell ref="C57:AF57"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="O65:AF65"/>
+    <mergeCell ref="AG64:AM64"/>
+    <mergeCell ref="B45:Y45"/>
+    <mergeCell ref="AC19:AM19"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B35:AB35"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="B47:Y47"/>
+    <mergeCell ref="B25:AB25"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="AD29:AM29"/>
+    <mergeCell ref="AD23:AM23"/>
+    <mergeCell ref="AA47:AF47"/>
+    <mergeCell ref="B24:AB24"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AD21:AM21"/>
+    <mergeCell ref="C60:AF60"/>
+    <mergeCell ref="AD39:AM39"/>
+    <mergeCell ref="B49:Y49"/>
+    <mergeCell ref="AA50:AF50"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B40:AB40"/>
+    <mergeCell ref="AD20:AM20"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AH47:AM47"/>
+    <mergeCell ref="AG59:AM59"/>
+    <mergeCell ref="B50:Y50"/>
+    <mergeCell ref="B32:AB32"/>
+    <mergeCell ref="B26:AB26"/>
+    <mergeCell ref="C58:AF58"/>
+    <mergeCell ref="B27:AB27"/>
+    <mergeCell ref="C12:AM12"/>
+    <mergeCell ref="B63:AM63"/>
+    <mergeCell ref="B48:Y48"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="AH46:AM46"/>
+    <mergeCell ref="B29:AB29"/>
+    <mergeCell ref="AH51:AM51"/>
+    <mergeCell ref="B38:AB38"/>
     <mergeCell ref="AG61:AM61"/>
     <mergeCell ref="AE15:AI15"/>
     <mergeCell ref="Y15:AD15"/>
@@ -6943,81 +7017,60 @@
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="AH52:AM52"/>
     <mergeCell ref="B46:Y46"/>
-    <mergeCell ref="C58:AF58"/>
-    <mergeCell ref="B27:AB27"/>
-    <mergeCell ref="C12:AM12"/>
-    <mergeCell ref="B63:AM63"/>
-    <mergeCell ref="B48:Y48"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="AH46:AM46"/>
-    <mergeCell ref="B29:AB29"/>
-    <mergeCell ref="AH51:AM51"/>
-    <mergeCell ref="B38:AB38"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AD21:AM21"/>
-    <mergeCell ref="C60:AF60"/>
-    <mergeCell ref="AD39:AM39"/>
-    <mergeCell ref="B49:Y49"/>
-    <mergeCell ref="AA50:AF50"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B40:AB40"/>
-    <mergeCell ref="AD20:AM20"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="H14:S14"/>
-    <mergeCell ref="C57:AF57"/>
-    <mergeCell ref="B45:Y45"/>
-    <mergeCell ref="AC19:AM19"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B35:AB35"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="B47:Y47"/>
-    <mergeCell ref="B25:AB25"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="AD29:AM29"/>
-    <mergeCell ref="AD23:AM23"/>
-    <mergeCell ref="AA47:AF47"/>
-    <mergeCell ref="B24:AB24"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AH47:AM47"/>
-    <mergeCell ref="AG59:AM59"/>
-    <mergeCell ref="B50:Y50"/>
-    <mergeCell ref="B32:AB32"/>
-    <mergeCell ref="B26:AB26"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="O65:AF65"/>
-    <mergeCell ref="AG64:AM64"/>
+    <mergeCell ref="B73:AM75"/>
+    <mergeCell ref="AD28:AM28"/>
+    <mergeCell ref="AA52:AF52"/>
+    <mergeCell ref="AD27:AM27"/>
+    <mergeCell ref="AD36:AM36"/>
+    <mergeCell ref="AD30:AM30"/>
+    <mergeCell ref="B22:AB22"/>
+    <mergeCell ref="AC66:AM66"/>
+    <mergeCell ref="C55:AF55"/>
+    <mergeCell ref="AH48:AM48"/>
+    <mergeCell ref="C59:AF59"/>
+    <mergeCell ref="Z45:AF45"/>
+    <mergeCell ref="B34:AB34"/>
+    <mergeCell ref="B28:AB28"/>
+    <mergeCell ref="B37:AB37"/>
+    <mergeCell ref="C61:AF61"/>
+    <mergeCell ref="B30:AB30"/>
+    <mergeCell ref="AG65:AM65"/>
+    <mergeCell ref="B51:Y51"/>
+    <mergeCell ref="B44:AM44"/>
+    <mergeCell ref="AD25:AM25"/>
+    <mergeCell ref="AH62:AM62"/>
+    <mergeCell ref="AD31:AM31"/>
+    <mergeCell ref="AA48:AF48"/>
+    <mergeCell ref="AH3:AM5"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="B31:AB31"/>
+    <mergeCell ref="AG57:AM57"/>
+    <mergeCell ref="B19:AB19"/>
+    <mergeCell ref="AD33:AM33"/>
+    <mergeCell ref="AG54:AM54"/>
+    <mergeCell ref="O64:AF64"/>
+    <mergeCell ref="AC34:AM34"/>
+    <mergeCell ref="AD35:AM35"/>
+    <mergeCell ref="AG56:AM56"/>
+    <mergeCell ref="B36:AB36"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="B20:AB20"/>
+    <mergeCell ref="B52:Y52"/>
+    <mergeCell ref="B42:AM43"/>
+    <mergeCell ref="C54:AF54"/>
+    <mergeCell ref="C56:AF56"/>
+    <mergeCell ref="B53:Y53"/>
     <mergeCell ref="J64:N64"/>
     <mergeCell ref="B21:AB21"/>
-    <mergeCell ref="H3:AG5"/>
-    <mergeCell ref="AA49:AF49"/>
-    <mergeCell ref="B66:AB72"/>
-    <mergeCell ref="B39:AB39"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="AD22:AM22"/>
-    <mergeCell ref="AC67:AM72"/>
-    <mergeCell ref="B23:AB23"/>
-    <mergeCell ref="AG58:AM58"/>
-    <mergeCell ref="AD37:AM37"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="AG60:AM60"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AD24:AM24"/>
-    <mergeCell ref="AD38:AM38"/>
-    <mergeCell ref="B62:AF62"/>
-    <mergeCell ref="AA51:AF51"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="AD40:AM40"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup scale="78" orientation="portrait" blackAndWhite="1" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="78" orientation="portrait" blackAndWhite="1" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
